--- a/data/trans_orig/P79A6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A6_2023-Edad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>32508</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21732</v>
+        <v>21806</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41696</v>
+        <v>41316</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.640318097199857</v>
+        <v>0.6403180971998571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4280577957326603</v>
+        <v>0.4295287677173332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8213143401957321</v>
+        <v>0.813810534914024</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -775,19 +775,19 @@
         <v>68980</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56035</v>
+        <v>56205</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77995</v>
+        <v>78320</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7906881469578531</v>
+        <v>0.7906881469578532</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6423133764827574</v>
+        <v>0.6442593109141341</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8940315212776219</v>
+        <v>0.8977553398844198</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>18260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9072</v>
+        <v>9452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29036</v>
+        <v>28962</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3596819028001429</v>
+        <v>0.359681902800143</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1786856598042681</v>
+        <v>0.1861894650859759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5719422042673401</v>
+        <v>0.5704712322826662</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -838,19 +838,19 @@
         <v>18260</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9245</v>
+        <v>8920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31205</v>
+        <v>31035</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2093118530421469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1059684787223782</v>
+        <v>0.10224466011558</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3576866235172426</v>
+        <v>0.3557406890858656</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>25499</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18318</v>
+        <v>18300</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30591</v>
+        <v>30622</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7482644290517146</v>
+        <v>0.7482644290517145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5375335216383144</v>
+        <v>0.5370012325962608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8976787671033762</v>
+        <v>0.898570934200394</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -963,19 +963,19 @@
         <v>37378</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29643</v>
+        <v>29458</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41698</v>
+        <v>41788</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8330356393653154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6606345385872016</v>
+        <v>0.6565174564896564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9293094940952649</v>
+        <v>0.9313180819690057</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -984,19 +984,19 @@
         <v>62878</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52849</v>
+        <v>53632</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69951</v>
+        <v>69540</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7964442238253615</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6694169666756011</v>
+        <v>0.6793302769591369</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8860448901958705</v>
+        <v>0.8808334644881801</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>8579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3487</v>
+        <v>3456</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15760</v>
+        <v>15778</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2517355709482854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1023212328966236</v>
+        <v>0.101429065799606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4624664783616856</v>
+        <v>0.4629987674037392</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1034,19 +1034,19 @@
         <v>7492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3172</v>
+        <v>3082</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15227</v>
+        <v>15412</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1669643606346846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07069050590473509</v>
+        <v>0.06868191803099422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3393654614127984</v>
+        <v>0.3434825435103434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1055,19 +1055,19 @@
         <v>16070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8997</v>
+        <v>9408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26099</v>
+        <v>25316</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2035557761746385</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.11395510980413</v>
+        <v>0.1191665355118197</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3305830333243986</v>
+        <v>0.3206697230408624</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>31084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24332</v>
+        <v>25608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35176</v>
+        <v>35210</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7968110915201854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6237369822400681</v>
+        <v>0.6564392940638882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9017065682220827</v>
+        <v>0.9025942606696027</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1180,19 +1180,19 @@
         <v>35073</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29328</v>
+        <v>28957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39768</v>
+        <v>39262</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7582566929632646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6340522820112591</v>
+        <v>0.6260253655075706</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.85976510678489</v>
+        <v>0.8488251207460555</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -1201,19 +1201,19 @@
         <v>66157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56399</v>
+        <v>57992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72094</v>
+        <v>72659</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7758957594819235</v>
+        <v>0.7758957594819234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6614611154987893</v>
+        <v>0.6801405086004956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8455291416329905</v>
+        <v>0.8521492150854371</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>7926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3834</v>
+        <v>3800</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14678</v>
+        <v>13402</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2031889084798146</v>
+        <v>0.2031889084798145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09829343177791725</v>
+        <v>0.09740573933039741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3762630177599309</v>
+        <v>0.3435607059361116</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1251,19 +1251,19 @@
         <v>11182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6487</v>
+        <v>6993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16927</v>
+        <v>17298</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2417433070367353</v>
+        <v>0.2417433070367354</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.14023489321511</v>
+        <v>0.1511748792539443</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3659477179887408</v>
+        <v>0.3739746344924293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -1272,19 +1272,19 @@
         <v>19108</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13171</v>
+        <v>12606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28866</v>
+        <v>27273</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2241042405180766</v>
+        <v>0.2241042405180765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1544708583670095</v>
+        <v>0.147850784914563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.338538884501211</v>
+        <v>0.3198594913995044</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>49138</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42287</v>
+        <v>42165</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53301</v>
+        <v>53167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8709553528005918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7495227206401457</v>
+        <v>0.747347362929063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9447347963293842</v>
+        <v>0.9423550461408208</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -1397,19 +1397,19 @@
         <v>53587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48551</v>
+        <v>48600</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57142</v>
+        <v>57526</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8711165228884771</v>
+        <v>0.871116522888477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7892567071834653</v>
+        <v>0.7900445956008112</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9289117886903602</v>
+        <v>0.9351594382065509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -1418,19 +1418,19 @@
         <v>102725</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94950</v>
+        <v>95163</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108369</v>
+        <v>108233</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8710394201440074</v>
+        <v>0.8710394201440075</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8051094694273311</v>
+        <v>0.8069139740947761</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9188984259438884</v>
+        <v>0.9177382461712201</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>7281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3118</v>
+        <v>3252</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14132</v>
+        <v>14254</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1290446471994082</v>
+        <v>0.1290446471994081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05526520367061583</v>
+        <v>0.05764495385917928</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2504772793598551</v>
+        <v>0.2526526370709371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1468,19 +1468,19 @@
         <v>7928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4373</v>
+        <v>3989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12964</v>
+        <v>12915</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1288834771115229</v>
+        <v>0.128883477111523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07108821130963999</v>
+        <v>0.06484056179344923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2107432928165348</v>
+        <v>0.2099554043991903</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1489,19 +1489,19 @@
         <v>15209</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9565</v>
+        <v>9701</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22984</v>
+        <v>22771</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1289605798559926</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08110157405611154</v>
+        <v>0.08226175382877988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1948905305726689</v>
+        <v>0.1930860259052239</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>51453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44753</v>
+        <v>44760</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56053</v>
+        <v>56547</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8490994096996265</v>
+        <v>0.8490994096996267</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7385274676409737</v>
+        <v>0.7386432723878916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9250139903623223</v>
+        <v>0.9331668624330879</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -1614,19 +1614,19 @@
         <v>60422</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55173</v>
+        <v>55303</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63658</v>
+        <v>63988</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8953855340472358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8176031595908494</v>
+        <v>0.819532962285841</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9433536514253051</v>
+        <v>0.9482441757198167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -1635,19 +1635,19 @@
         <v>111874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103480</v>
+        <v>102987</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117954</v>
+        <v>117727</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8734865352977181</v>
+        <v>0.8734865352977182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8079488502563841</v>
+        <v>0.8040929879741174</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9209505256881851</v>
+        <v>0.9191798780996241</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>9144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4544</v>
+        <v>4050</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15844</v>
+        <v>15837</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1509005903003733</v>
+        <v>0.1509005903003734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07498600963767769</v>
+        <v>0.06683313756691218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2614725323590265</v>
+        <v>0.2613567276121086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1685,19 +1685,19 @@
         <v>7059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3823</v>
+        <v>3493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12308</v>
+        <v>12178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1046144659527643</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05664634857469476</v>
+        <v>0.0517558242801836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1823968404091505</v>
+        <v>0.180467037714159</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1706,19 +1706,19 @@
         <v>16204</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10124</v>
+        <v>10351</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24598</v>
+        <v>25091</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1265134647022818</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0790494743118149</v>
+        <v>0.08082012190037637</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1920511497436157</v>
+        <v>0.1959070120258829</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>34139</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29661</v>
+        <v>29411</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36394</v>
+        <v>36570</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9026820812883309</v>
+        <v>0.9026820812883311</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7842724950017751</v>
+        <v>0.7776577263602197</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9622882287268382</v>
+        <v>0.9669511425576836</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1831,19 +1831,19 @@
         <v>38270</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35008</v>
+        <v>34457</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40160</v>
+        <v>40157</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9240786528974723</v>
+        <v>0.9240786528974719</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8453214281444283</v>
+        <v>0.8320012818606031</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9697109206558537</v>
+        <v>0.9696487804928958</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>113</v>
@@ -1852,19 +1852,19 @@
         <v>72410</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67717</v>
+        <v>67745</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76023</v>
+        <v>75594</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9138655952362638</v>
+        <v>0.9138655952362635</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.854634707187205</v>
+        <v>0.8549916613059818</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.959458772094809</v>
+        <v>0.9540433652784762</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>3681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1426</v>
+        <v>1250</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8159</v>
+        <v>8409</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09731791871166925</v>
+        <v>0.09731791871166924</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03771177127316173</v>
+        <v>0.03304885744231646</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2157275049982245</v>
+        <v>0.2223422736397815</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1902,19 +1902,19 @@
         <v>3144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6406</v>
+        <v>6957</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07592134710252803</v>
+        <v>0.07592134710252801</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03028907934414622</v>
+        <v>0.03035121950710412</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1546785718555718</v>
+        <v>0.1679987181393973</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1923,19 +1923,19 @@
         <v>6825</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3212</v>
+        <v>3641</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11518</v>
+        <v>11490</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08613440476373613</v>
+        <v>0.08613440476373611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.040541227905191</v>
+        <v>0.04595663472152384</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1453652928127949</v>
+        <v>0.1450083386940178</v>
       </c>
     </row>
     <row r="21">
@@ -2027,7 +2027,7 @@
         <v>28252</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24510</v>
+        <v>24333</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>29294</v>
@@ -2036,7 +2036,7 @@
         <v>0.9644293842660634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8366832944923877</v>
+        <v>0.830651403029122</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2048,19 +2048,19 @@
         <v>39686</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37076</v>
+        <v>37067</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40984</v>
+        <v>40982</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9574669463810112</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8944872174606838</v>
+        <v>0.8942782488860342</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9887754763806326</v>
+        <v>0.9887215810632252</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -2069,19 +2069,19 @@
         <v>67938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63170</v>
+        <v>63537</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69773</v>
+        <v>69806</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9603500265332539</v>
+        <v>0.9603500265332536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.89295619459974</v>
+        <v>0.898133922168021</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9862830840140698</v>
+        <v>0.9867605236371401</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4784</v>
+        <v>4961</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03557061573393652</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1633167055076145</v>
+        <v>0.1693485969708781</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2119,19 +2119,19 @@
         <v>1763</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4373</v>
+        <v>4382</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04253305361898877</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0112245236193674</v>
+        <v>0.0112784189367749</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1055127825393149</v>
+        <v>0.105721751113966</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2140,19 +2140,19 @@
         <v>2805</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>970</v>
+        <v>937</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7573</v>
+        <v>7206</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03964997346674617</v>
+        <v>0.03964997346674616</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01371691598593009</v>
+        <v>0.01323947636286015</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1070438054002602</v>
+        <v>0.1018660778319789</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>256037</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>244093</v>
+        <v>241673</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>267246</v>
+        <v>265767</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8717959495910227</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8311285043321256</v>
+        <v>0.8228874748367311</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9099621338174613</v>
+        <v>0.9049259872437935</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>393</v>
@@ -2265,19 +2265,19 @@
         <v>296924</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>279275</v>
+        <v>279391</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>308944</v>
+        <v>310457</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.8393540425330274</v>
+        <v>0.8393540425330273</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7894626004053595</v>
+        <v>0.7897923594971228</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8733317902460598</v>
+        <v>0.8776092401261155</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>643</v>
@@ -2286,19 +2286,19 @@
         <v>552961</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>532919</v>
+        <v>532240</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>570540</v>
+        <v>571478</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8540701592290861</v>
+        <v>0.8540701592290864</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8231148769064192</v>
+        <v>0.8220652992726727</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.881222064258823</v>
+        <v>0.8826707445561311</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>37652</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26443</v>
+        <v>27922</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49596</v>
+        <v>52016</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1282040504089773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09003786618253877</v>
+        <v>0.09507401275620647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1688714956678741</v>
+        <v>0.1771125251632686</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -2336,19 +2336,19 @@
         <v>56829</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44809</v>
+        <v>43296</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>74478</v>
+        <v>74362</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1606459574669726</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1266682097539403</v>
+        <v>0.1223907598738845</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2105373995946406</v>
+        <v>0.210207640502877</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -2357,19 +2357,19 @@
         <v>94481</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>76902</v>
+        <v>75964</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>114523</v>
+        <v>115202</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1459298407709138</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.118777935741177</v>
+        <v>0.117329255443869</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1768851230935809</v>
+        <v>0.1779347007273273</v>
       </c>
     </row>
     <row r="27">
